--- a/Code/Results/Cases/Case_0_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_56/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,73 +447,76 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_0_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_56/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -450,73 +456,79 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_0_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_56/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.4303758825066097</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.02823400681510435</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.1931499489403734</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2.480562623052407</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007396821666270137</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,131 +451,1097 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1786129369203096</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.66312166460591</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>8.645358351891218</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.3807386676273552</v>
+      </c>
+      <c r="D3">
+        <v>0.02547449408833202</v>
+      </c>
+      <c r="E3">
+        <v>0.1703044342602595</v>
+      </c>
+      <c r="F3">
+        <v>2.160145847444454</v>
+      </c>
+      <c r="G3">
+        <v>0.0007489774306852119</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0.1570120035722695</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>6.74968365211538</v>
+      </c>
+      <c r="O3">
+        <v>7.535892889105128</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.3511876936294129</v>
+      </c>
+      <c r="D4">
+        <v>0.02386882396596235</v>
+      </c>
+      <c r="E4">
+        <v>0.1567058538966819</v>
+      </c>
+      <c r="F4">
+        <v>1.968560563029314</v>
+      </c>
+      <c r="G4">
+        <v>0.0007548224952840957</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0.1441564766736931</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>6.187481969423061</v>
+      </c>
+      <c r="O4">
+        <v>6.872969618722834</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.339350851655837</v>
+      </c>
+      <c r="D5">
+        <v>0.02323407022482371</v>
+      </c>
+      <c r="E5">
+        <v>0.1512590629771431</v>
+      </c>
+      <c r="F5">
+        <v>1.891615743196027</v>
+      </c>
+      <c r="G5">
+        <v>0.0007572414086239796</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0.1390075568040601</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>5.958052239810286</v>
+      </c>
+      <c r="O5">
+        <v>6.606829434000304</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.3373970057877784</v>
+      </c>
+      <c r="D6">
+        <v>0.02312977795171989</v>
+      </c>
+      <c r="E6">
+        <v>0.1503599926657735</v>
+      </c>
+      <c r="F6">
+        <v>1.878902634946854</v>
+      </c>
+      <c r="G6">
+        <v>0.0007576453671880627</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0.1381576607121815</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>5.919936152110608</v>
+      </c>
+      <c r="O6">
+        <v>6.562862797678918</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.3510272605377054</v>
+      </c>
+      <c r="D7">
+        <v>0.0238601875961173</v>
+      </c>
+      <c r="E7">
+        <v>0.156632029267989</v>
+      </c>
+      <c r="F7">
+        <v>1.967518501805117</v>
+      </c>
+      <c r="G7">
+        <v>0.000754854964947769</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0.1440866887104946</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>6.184389112219776</v>
+      </c>
+      <c r="O7">
+        <v>6.869364878859074</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.4130511958566103</v>
+      </c>
+      <c r="D8">
+        <v>0.02726237322734448</v>
+      </c>
+      <c r="E8">
+        <v>0.1851755622608096</v>
+      </c>
+      <c r="F8">
+        <v>2.368907180583903</v>
+      </c>
+      <c r="G8">
+        <v>0.0007428600849928815</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0.1710723055938033</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>7.348453399592813</v>
+      </c>
+      <c r="O8">
+        <v>8.258641174518118</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.5434426232045269</v>
+      </c>
+      <c r="D9">
+        <v>0.03478059461858152</v>
+      </c>
+      <c r="E9">
+        <v>0.245219872343398</v>
+      </c>
+      <c r="F9">
+        <v>3.205501436832265</v>
+      </c>
+      <c r="G9">
+        <v>0.0007203105383219044</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0.2278750332136781</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>9.620230281550675</v>
+      </c>
+      <c r="O9">
+        <v>11.15858495841098</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.6468607918905036</v>
+      </c>
+      <c r="D10">
+        <v>0.04105703818959228</v>
+      </c>
+      <c r="E10">
+        <v>0.2928976422856024</v>
+      </c>
+      <c r="F10">
+        <v>3.864173394417122</v>
+      </c>
+      <c r="G10">
+        <v>0.0007041430500073978</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0.2730285018474348</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>11.28258838837513</v>
+      </c>
+      <c r="O10">
+        <v>13.44535920932998</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.6961785314881297</v>
+      </c>
+      <c r="D11">
+        <v>0.04414221182884148</v>
+      </c>
+      <c r="E11">
+        <v>0.3156542770146302</v>
+      </c>
+      <c r="F11">
+        <v>4.17712731434824</v>
+      </c>
+      <c r="G11">
+        <v>0.0006968230533296448</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0.294598543732647</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>12.03742316731751</v>
+      </c>
+      <c r="O11">
+        <v>14.53288756793438</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.7152426551909912</v>
+      </c>
+      <c r="D12">
+        <v>0.04535047067295039</v>
+      </c>
+      <c r="E12">
+        <v>0.324454760776355</v>
+      </c>
+      <c r="F12">
+        <v>4.297927760413103</v>
+      </c>
+      <c r="G12">
+        <v>0.0006940509665043948</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0.302943520342339</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>12.32306348037548</v>
+      </c>
+      <c r="O12">
+        <v>14.95284430556353</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.7111184726856266</v>
+      </c>
+      <c r="D13">
+        <v>0.04508834797853467</v>
+      </c>
+      <c r="E13">
+        <v>0.3225507525411828</v>
+      </c>
+      <c r="F13">
+        <v>4.271802606726055</v>
+      </c>
+      <c r="G13">
+        <v>0.0006946480838214514</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0.3011378994963536</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>12.2615545799186</v>
+      </c>
+      <c r="O13">
+        <v>14.86201355086132</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.6977387684114831</v>
+      </c>
+      <c r="D14">
+        <v>0.04424077047960395</v>
+      </c>
+      <c r="E14">
+        <v>0.3163744422049248</v>
+      </c>
+      <c r="F14">
+        <v>4.187017324511572</v>
+      </c>
+      <c r="G14">
+        <v>0.0006965950279840431</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0.2952813617985015</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>12.06092695796559</v>
+      </c>
+      <c r="O14">
+        <v>14.56726616115157</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.6895959333288602</v>
+      </c>
+      <c r="D15">
+        <v>0.0437270383452173</v>
+      </c>
+      <c r="E15">
+        <v>0.3126160745172299</v>
+      </c>
+      <c r="F15">
+        <v>4.135394597206499</v>
+      </c>
+      <c r="G15">
+        <v>0.0006977873986568279</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0.2917180395915011</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>11.93801081193851</v>
+      </c>
+      <c r="O15">
+        <v>14.38782773387663</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.6436885334336182</v>
+      </c>
+      <c r="D16">
+        <v>0.04086060220355137</v>
+      </c>
+      <c r="E16">
+        <v>0.2914343364202594</v>
+      </c>
+      <c r="F16">
+        <v>3.844019877093785</v>
+      </c>
+      <c r="G16">
+        <v>0.0007046217058602755</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0.2716419170107685</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>11.23323027560724</v>
+      </c>
+      <c r="O16">
+        <v>13.37534687177464</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.6161486038040493</v>
+      </c>
+      <c r="D17">
+        <v>0.03916554185659749</v>
+      </c>
+      <c r="E17">
+        <v>0.2787329552054416</v>
+      </c>
+      <c r="F17">
+        <v>3.668930829356043</v>
+      </c>
+      <c r="G17">
+        <v>0.0007088198110211646</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0.2596085389489389</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>10.80051555282938</v>
+      </c>
+      <c r="O17">
+        <v>12.76720963114212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.6005179858996712</v>
+      </c>
+      <c r="D18">
+        <v>0.03821175197234083</v>
+      </c>
+      <c r="E18">
+        <v>0.2715259267671968</v>
+      </c>
+      <c r="F18">
+        <v>3.569452145934065</v>
+      </c>
+      <c r="G18">
+        <v>0.0007112380676017501</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0.2527821693376922</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>10.55149949033284</v>
+      </c>
+      <c r="O18">
+        <v>12.42178165818189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.5952600128684651</v>
+      </c>
+      <c r="D19">
+        <v>0.03789226111660327</v>
+      </c>
+      <c r="E19">
+        <v>0.2691018445924414</v>
+      </c>
+      <c r="F19">
+        <v>3.535970819949085</v>
+      </c>
+      <c r="G19">
+        <v>0.0007120576122547906</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0.2504863796553423</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>10.46716465870099</v>
+      </c>
+      <c r="O19">
+        <v>12.30553679531073</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.6190581666900243</v>
+      </c>
+      <c r="D20">
+        <v>0.03934374780104832</v>
+      </c>
+      <c r="E20">
+        <v>0.2800746499466484</v>
+      </c>
+      <c r="F20">
+        <v>3.68743975098019</v>
+      </c>
+      <c r="G20">
+        <v>0.0007083725758021282</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0.2608794965582035</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>10.84659223998074</v>
+      </c>
+      <c r="O20">
+        <v>12.831487035122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.7016576199980591</v>
+      </c>
+      <c r="D21">
+        <v>0.04448857786886862</v>
+      </c>
+      <c r="E21">
+        <v>0.3181833456617724</v>
+      </c>
+      <c r="F21">
+        <v>4.211855300239847</v>
+      </c>
+      <c r="G21">
+        <v>0.0006960232131518927</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0.296996513391619</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>12.11986155709377</v>
+      </c>
+      <c r="O21">
+        <v>14.65360805409955</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.7579429551380485</v>
+      </c>
+      <c r="D22">
+        <v>0.04808827149614103</v>
+      </c>
+      <c r="E22">
+        <v>0.3441741566809284</v>
+      </c>
+      <c r="F22">
+        <v>4.568173154447095</v>
+      </c>
+      <c r="G22">
+        <v>0.0006879481735876443</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0.3216493219793506</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>12.95085643057945</v>
+      </c>
+      <c r="O22">
+        <v>15.89267736597856</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.7276684297703753</v>
+      </c>
+      <c r="D23">
+        <v>0.04614267985699172</v>
+      </c>
+      <c r="E23">
+        <v>0.3301919683132155</v>
+      </c>
+      <c r="F23">
+        <v>4.376614696381068</v>
+      </c>
+      <c r="G23">
+        <v>0.0006922602841858399</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0.3083848130501394</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>12.50744471934257</v>
+      </c>
+      <c r="O23">
+        <v>15.22644593706491</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.6177421272257106</v>
+      </c>
+      <c r="D24">
+        <v>0.03926311684828221</v>
+      </c>
+      <c r="E24">
+        <v>0.2794677754909216</v>
+      </c>
+      <c r="F24">
+        <v>3.67906821230207</v>
+      </c>
+      <c r="G24">
+        <v>0.0007085747557681805</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0.2603046128538153</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>10.82576172529139</v>
+      </c>
+      <c r="O24">
+        <v>12.80241424205263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.5070145623485303</v>
+      </c>
+      <c r="D25">
+        <v>0.03263401838854918</v>
+      </c>
+      <c r="E25">
+        <v>0.2284382103031604</v>
+      </c>
+      <c r="F25">
+        <v>2.972571303467191</v>
+      </c>
+      <c r="G25">
+        <v>0.0007263250398014942</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0.2119931041186476</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>9.00683856119241</v>
+      </c>
+      <c r="O25">
+        <v>10.35062602493451</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_56/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4303758825066097</v>
+        <v>0.4113150465963145</v>
       </c>
       <c r="D2">
-        <v>0.02823400681510435</v>
+        <v>0.04122572234083322</v>
       </c>
       <c r="E2">
-        <v>0.1931499489403734</v>
+        <v>0.1738898040102441</v>
       </c>
       <c r="F2">
-        <v>2.480562623052407</v>
+        <v>1.595332469086912</v>
       </c>
       <c r="G2">
-        <v>0.0007396821666270137</v>
+        <v>0.002439077633301376</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1786129369203096</v>
+        <v>0.1518719258989734</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>7.66312166460591</v>
+        <v>2.873581687696401</v>
       </c>
       <c r="O2">
-        <v>8.645358351891218</v>
+        <v>5.764297367248616</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3807386676273552</v>
+        <v>0.4025426414731328</v>
       </c>
       <c r="D3">
-        <v>0.02547449408833202</v>
+        <v>0.04097521872294152</v>
       </c>
       <c r="E3">
-        <v>0.1703044342602595</v>
+        <v>0.1697737840431728</v>
       </c>
       <c r="F3">
-        <v>2.160145847444454</v>
+        <v>1.528102653615178</v>
       </c>
       <c r="G3">
-        <v>0.0007489774306852119</v>
+        <v>0.002445006840919639</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1570120035722695</v>
+        <v>0.1479145768503898</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.74968365211538</v>
+        <v>2.562605684679681</v>
       </c>
       <c r="O3">
-        <v>7.535892889105128</v>
+        <v>5.534998599706682</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3511876936294129</v>
+        <v>0.3974091552244943</v>
       </c>
       <c r="D4">
-        <v>0.02386882396596235</v>
+        <v>0.04084533152759917</v>
       </c>
       <c r="E4">
-        <v>0.1567058538966819</v>
+        <v>0.1673565443793592</v>
       </c>
       <c r="F4">
-        <v>1.968560563029314</v>
+        <v>1.487888719256986</v>
       </c>
       <c r="G4">
-        <v>0.0007548224952840957</v>
+        <v>0.0024488389505038</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1441564766736931</v>
+        <v>0.1455834063615171</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.187481969423061</v>
+        <v>2.371325805375818</v>
       </c>
       <c r="O4">
-        <v>6.872969618722834</v>
+        <v>5.398053472804634</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.339350851655837</v>
+        <v>0.395380456662167</v>
       </c>
       <c r="D5">
-        <v>0.02323407022482371</v>
+        <v>0.04079838412101111</v>
       </c>
       <c r="E5">
-        <v>0.1512590629771431</v>
+        <v>0.1663989955515106</v>
       </c>
       <c r="F5">
-        <v>1.891615743196027</v>
+        <v>1.471766925594494</v>
       </c>
       <c r="G5">
-        <v>0.0007572414086239796</v>
+        <v>0.002450448910948996</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1390075568040601</v>
+        <v>0.1446580720819739</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.958052239810286</v>
+        <v>2.293303068607429</v>
       </c>
       <c r="O5">
-        <v>6.606829434000304</v>
+        <v>5.343206354397012</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3373970057877784</v>
+        <v>0.3950474027081441</v>
       </c>
       <c r="D6">
-        <v>0.02312977795171989</v>
+        <v>0.04079094892883006</v>
       </c>
       <c r="E6">
-        <v>0.1503599926657735</v>
+        <v>0.1662416511366303</v>
       </c>
       <c r="F6">
-        <v>1.878902634946854</v>
+        <v>1.469105898554105</v>
       </c>
       <c r="G6">
-        <v>0.0007576453671880627</v>
+        <v>0.002450719169078277</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1381576607121815</v>
+        <v>0.1445059040533607</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.919936152110608</v>
+        <v>2.280343261403573</v>
       </c>
       <c r="O6">
-        <v>6.562862797678918</v>
+        <v>5.33415673610159</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3510272605377054</v>
+        <v>0.3973815398671832</v>
       </c>
       <c r="D7">
-        <v>0.0238601875961173</v>
+        <v>0.04084467419834326</v>
       </c>
       <c r="E7">
-        <v>0.156632029267989</v>
+        <v>0.1673435194300446</v>
       </c>
       <c r="F7">
-        <v>1.967518501805117</v>
+        <v>1.487670222138831</v>
       </c>
       <c r="G7">
-        <v>0.000754854964947769</v>
+        <v>0.002448860466967142</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1440866887104946</v>
+        <v>0.1455708274514933</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>6.184389112219776</v>
+        <v>2.370273851392596</v>
       </c>
       <c r="O7">
-        <v>6.869364878859074</v>
+        <v>5.397309912077901</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4130511958566103</v>
+        <v>0.4082376467131894</v>
       </c>
       <c r="D8">
-        <v>0.02726237322734448</v>
+        <v>0.04113436324431063</v>
       </c>
       <c r="E8">
-        <v>0.1851755622608096</v>
+        <v>0.1724476636962464</v>
       </c>
       <c r="F8">
-        <v>2.368907180583903</v>
+        <v>1.571929136775665</v>
       </c>
       <c r="G8">
-        <v>0.0007428600849928815</v>
+        <v>0.002441082374678493</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1710723055938033</v>
+        <v>0.1504868499159144</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>7.348453399592813</v>
+        <v>2.766433886209825</v>
       </c>
       <c r="O8">
-        <v>8.258641174518118</v>
+        <v>5.684432272078936</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.5434426232045269</v>
+        <v>0.4315490945530769</v>
       </c>
       <c r="D9">
-        <v>0.03478059461858152</v>
+        <v>0.0418938558584685</v>
       </c>
       <c r="E9">
-        <v>0.245219872343398</v>
+        <v>0.1833381646391032</v>
       </c>
       <c r="F9">
-        <v>3.205501436832265</v>
+        <v>1.745725099980206</v>
       </c>
       <c r="G9">
-        <v>0.0007203105383219044</v>
+        <v>0.002427341336521415</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2278750332136781</v>
+        <v>0.1609184648714432</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.620230281550675</v>
+        <v>3.540180268007646</v>
       </c>
       <c r="O9">
-        <v>11.15858495841098</v>
+        <v>6.278378879143929</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.6468607918905036</v>
+        <v>0.4499349010714582</v>
       </c>
       <c r="D10">
-        <v>0.04105703818959228</v>
+        <v>0.04257091168715732</v>
       </c>
       <c r="E10">
-        <v>0.2928976422856024</v>
+        <v>0.1918894678433247</v>
       </c>
       <c r="F10">
-        <v>3.864173394417122</v>
+        <v>1.878803705533187</v>
       </c>
       <c r="G10">
-        <v>0.0007041430500073978</v>
+        <v>0.002418156070073038</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2730285018474348</v>
+        <v>0.1690778548396423</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.28258838837513</v>
+        <v>4.10623028343673</v>
       </c>
       <c r="O10">
-        <v>13.44535920932998</v>
+        <v>6.734186266718666</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.6961785314881297</v>
+        <v>0.4585782732348207</v>
       </c>
       <c r="D11">
-        <v>0.04414221182884148</v>
+        <v>0.04290530830628114</v>
       </c>
       <c r="E11">
-        <v>0.3156542770146302</v>
+        <v>0.1959019978053576</v>
       </c>
       <c r="F11">
-        <v>4.17712731434824</v>
+        <v>1.94055330003863</v>
       </c>
       <c r="G11">
-        <v>0.0006968230533296448</v>
+        <v>0.002414172684371449</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.294598543732647</v>
+        <v>0.172900211514559</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.03742316731751</v>
+        <v>4.363110593465422</v>
       </c>
       <c r="O11">
-        <v>14.53288756793438</v>
+        <v>6.945899248271644</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.7152426551909912</v>
+        <v>0.4618919340935577</v>
       </c>
       <c r="D12">
-        <v>0.04535047067295039</v>
+        <v>0.04303577475471343</v>
       </c>
       <c r="E12">
-        <v>0.324454760776355</v>
+        <v>0.1974392716318931</v>
       </c>
       <c r="F12">
-        <v>4.297927760413103</v>
+        <v>1.964113322163229</v>
       </c>
       <c r="G12">
-        <v>0.0006940509665043948</v>
+        <v>0.002412692139293403</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.302943520342339</v>
+        <v>0.1743637640832247</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.32306348037548</v>
+        <v>4.460285735714251</v>
       </c>
       <c r="O12">
-        <v>14.95284430556353</v>
+        <v>7.026707033160847</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.7111184726856266</v>
+        <v>0.4611764656201274</v>
       </c>
       <c r="D13">
-        <v>0.04508834797853467</v>
+        <v>0.0430075051174228</v>
       </c>
       <c r="E13">
-        <v>0.3225507525411828</v>
+        <v>0.1971073966083026</v>
       </c>
       <c r="F13">
-        <v>4.271802606726055</v>
+        <v>1.959031345373745</v>
       </c>
       <c r="G13">
-        <v>0.0006946480838214514</v>
+        <v>0.002413009764156291</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3011378994963536</v>
+        <v>0.1740478421134668</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.2615545799186</v>
+        <v>4.439361943450422</v>
       </c>
       <c r="O13">
-        <v>14.86201355086132</v>
+        <v>7.009275167049168</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.6977387684114831</v>
+        <v>0.4588500740291863</v>
       </c>
       <c r="D14">
-        <v>0.04424077047960395</v>
+        <v>0.04291596470560677</v>
       </c>
       <c r="E14">
-        <v>0.3163744422049248</v>
+        <v>0.1960281120293459</v>
       </c>
       <c r="F14">
-        <v>4.187017324511572</v>
+        <v>1.942488039117279</v>
       </c>
       <c r="G14">
-        <v>0.0006965950279840431</v>
+        <v>0.002414050321278413</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2952813617985015</v>
+        <v>0.1730202948356521</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.06092695796559</v>
+        <v>4.371107314139522</v>
       </c>
       <c r="O14">
-        <v>14.56726616115157</v>
+        <v>6.952534540460306</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.6895959333288602</v>
+        <v>0.4574303918063265</v>
       </c>
       <c r="D15">
-        <v>0.0437270383452173</v>
+        <v>0.04286039458800417</v>
       </c>
       <c r="E15">
-        <v>0.3126160745172299</v>
+        <v>0.1953693452286061</v>
       </c>
       <c r="F15">
-        <v>4.135394597206499</v>
+        <v>1.932377887238232</v>
       </c>
       <c r="G15">
-        <v>0.0006977873986568279</v>
+        <v>0.002414691318158281</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2917180395915011</v>
+        <v>0.1723929964418431</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.93801081193851</v>
+        <v>4.329286057409945</v>
       </c>
       <c r="O15">
-        <v>14.38782773387663</v>
+        <v>6.917862456505418</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.6436885334336182</v>
+        <v>0.4493756962205566</v>
       </c>
       <c r="D16">
-        <v>0.04086060220355137</v>
+        <v>0.04254959283818494</v>
       </c>
       <c r="E16">
-        <v>0.2914343364202594</v>
+        <v>0.1916297216248282</v>
       </c>
       <c r="F16">
-        <v>3.844019877093785</v>
+        <v>1.874792821859501</v>
       </c>
       <c r="G16">
-        <v>0.0007046217058602755</v>
+        <v>0.00241842030380357</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2716419170107685</v>
+        <v>0.1688302978955676</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.23323027560724</v>
+        <v>4.089429168003562</v>
       </c>
       <c r="O16">
-        <v>13.37534687177464</v>
+        <v>6.720438916590751</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.6161486038040493</v>
+        <v>0.4445062899972072</v>
       </c>
       <c r="D17">
-        <v>0.03916554185659749</v>
+        <v>0.04236571691788527</v>
       </c>
       <c r="E17">
-        <v>0.2787329552054416</v>
+        <v>0.1893671001002346</v>
       </c>
       <c r="F17">
-        <v>3.668930829356043</v>
+        <v>1.839778358249077</v>
       </c>
       <c r="G17">
-        <v>0.0007088198110211646</v>
+        <v>0.002420757748973889</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2596085389489389</v>
+        <v>0.1666731710256926</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.80051555282938</v>
+        <v>3.94211849063862</v>
       </c>
       <c r="O17">
-        <v>12.76720963114212</v>
+        <v>6.600450126405121</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.6005179858996712</v>
+        <v>0.4417318269260591</v>
       </c>
       <c r="D18">
-        <v>0.03821175197234083</v>
+        <v>0.04226243875648095</v>
       </c>
       <c r="E18">
-        <v>0.2715259267671968</v>
+        <v>0.1880772180152661</v>
       </c>
       <c r="F18">
-        <v>3.569452145934065</v>
+        <v>1.819752836722699</v>
       </c>
       <c r="G18">
-        <v>0.0007112380676017501</v>
+        <v>0.002422120553716031</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2527821693376922</v>
+        <v>0.1654428473608789</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.55149949033284</v>
+        <v>3.857331695637754</v>
       </c>
       <c r="O18">
-        <v>12.42178165818189</v>
+        <v>6.531845942678046</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.5952600128684651</v>
+        <v>0.4407969447700566</v>
       </c>
       <c r="D19">
-        <v>0.03789226111660327</v>
+        <v>0.04222789565883289</v>
       </c>
       <c r="E19">
-        <v>0.2691018445924414</v>
+        <v>0.1876424582821627</v>
       </c>
       <c r="F19">
-        <v>3.535970819949085</v>
+        <v>1.812992018896381</v>
       </c>
       <c r="G19">
-        <v>0.0007120576122547906</v>
+        <v>0.002422585135566624</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2504863796553423</v>
+        <v>0.1650280607486394</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.46716465870099</v>
+        <v>3.828614786364199</v>
       </c>
       <c r="O19">
-        <v>12.30553679531073</v>
+        <v>6.508687920264606</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.6190581666900243</v>
+        <v>0.4450219227514083</v>
       </c>
       <c r="D20">
-        <v>0.03934374780104832</v>
+        <v>0.04238503360718937</v>
       </c>
       <c r="E20">
-        <v>0.2800746499466484</v>
+        <v>0.189606766517997</v>
       </c>
       <c r="F20">
-        <v>3.68743975098019</v>
+        <v>1.843493903818938</v>
       </c>
       <c r="G20">
-        <v>0.0007083725758021282</v>
+        <v>0.002420507023993686</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2608794965582035</v>
+        <v>0.1669017231800751</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.84659223998074</v>
+        <v>3.95780600327754</v>
       </c>
       <c r="O20">
-        <v>12.831487035122</v>
+        <v>6.61318061865444</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.7016576199980591</v>
+        <v>0.459532286431056</v>
       </c>
       <c r="D21">
-        <v>0.04448857786886862</v>
+        <v>0.04294274785392105</v>
       </c>
       <c r="E21">
-        <v>0.3181833456617724</v>
+        <v>0.1963446389377665</v>
       </c>
       <c r="F21">
-        <v>4.211855300239847</v>
+        <v>1.947342390297081</v>
       </c>
       <c r="G21">
-        <v>0.0006960232131518927</v>
+        <v>0.002413743929176309</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.296996513391619</v>
+        <v>0.1733216715419843</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.11986155709377</v>
+        <v>4.391158149571083</v>
       </c>
       <c r="O21">
-        <v>14.65360805409955</v>
+        <v>6.969183284980772</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.7579429551380485</v>
+        <v>0.4692525077703635</v>
       </c>
       <c r="D22">
-        <v>0.04808827149614103</v>
+        <v>0.04332963540378643</v>
       </c>
       <c r="E22">
-        <v>0.3441741566809284</v>
+        <v>0.2008521682773079</v>
       </c>
       <c r="F22">
-        <v>4.568173154447095</v>
+        <v>2.01624508577035</v>
       </c>
       <c r="G22">
-        <v>0.0006879481735876443</v>
+        <v>0.002409486263784601</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3216493219793506</v>
+        <v>0.1776114721325968</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.95085643057945</v>
+        <v>4.67379181795809</v>
       </c>
       <c r="O22">
-        <v>15.89267736597856</v>
+        <v>7.205566999775442</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.7276684297703753</v>
+        <v>0.4640428353817185</v>
       </c>
       <c r="D23">
-        <v>0.04614267985699172</v>
+        <v>0.04312108369613554</v>
       </c>
       <c r="E23">
-        <v>0.3301919683132155</v>
+        <v>0.1984368371623333</v>
       </c>
       <c r="F23">
-        <v>4.376614696381068</v>
+        <v>1.979375152919317</v>
       </c>
       <c r="G23">
-        <v>0.0006922602841858399</v>
+        <v>0.00241174385560077</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3083848130501394</v>
+        <v>0.1753132561374002</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.50744471934257</v>
+        <v>4.523002190001307</v>
       </c>
       <c r="O23">
-        <v>15.22644593706491</v>
+        <v>7.079061535084406</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.6177421272257106</v>
+        <v>0.4447887272712023</v>
       </c>
       <c r="D24">
-        <v>0.03926311684828221</v>
+        <v>0.04237629295153766</v>
       </c>
       <c r="E24">
-        <v>0.2794677754909216</v>
+        <v>0.1894983793037923</v>
       </c>
       <c r="F24">
-        <v>3.67906821230207</v>
+        <v>1.841813779557327</v>
       </c>
       <c r="G24">
-        <v>0.0007085747557681805</v>
+        <v>0.002420620317637123</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2603046128538153</v>
+        <v>0.166798364125242</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.82576172529139</v>
+        <v>3.950713976768498</v>
       </c>
       <c r="O24">
-        <v>12.80241424205263</v>
+        <v>6.607423983390333</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.5070145623485303</v>
+        <v>0.4250235504886177</v>
       </c>
       <c r="D25">
-        <v>0.03263401838854918</v>
+        <v>0.04166765987362453</v>
       </c>
       <c r="E25">
-        <v>0.2284382103031604</v>
+        <v>0.1802963383349123</v>
       </c>
       <c r="F25">
-        <v>2.972571303467191</v>
+        <v>1.697774433799424</v>
       </c>
       <c r="G25">
-        <v>0.0007263250398014942</v>
+        <v>0.002430897980181944</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2119931041186476</v>
+        <v>0.1580104031885554</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9.00683856119241</v>
+        <v>3.331249627311138</v>
       </c>
       <c r="O25">
-        <v>10.35062602493451</v>
+        <v>6.114331337941053</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_56/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4113150465963145</v>
+        <v>0.4303758825068087</v>
       </c>
       <c r="D2">
-        <v>0.04122572234083322</v>
+        <v>0.02823400681499066</v>
       </c>
       <c r="E2">
-        <v>0.1738898040102441</v>
+        <v>0.1931499489403734</v>
       </c>
       <c r="F2">
-        <v>1.595332469086912</v>
+        <v>2.480562623052435</v>
       </c>
       <c r="G2">
-        <v>0.002439077633301376</v>
+        <v>0.0007396821666260217</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1518719258989734</v>
+        <v>0.1786129369205014</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.873581687696401</v>
+        <v>7.66312166460591</v>
       </c>
       <c r="O2">
-        <v>5.764297367248616</v>
+        <v>8.645358351891218</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.4025426414731328</v>
+        <v>0.3807386676273552</v>
       </c>
       <c r="D3">
-        <v>0.04097521872294152</v>
+        <v>0.02547449408833558</v>
       </c>
       <c r="E3">
-        <v>0.1697737840431728</v>
+        <v>0.1703044342602382</v>
       </c>
       <c r="F3">
-        <v>1.528102653615178</v>
+        <v>2.160145847444483</v>
       </c>
       <c r="G3">
-        <v>0.002445006840919639</v>
+        <v>0.0007489774306881358</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1479145768503898</v>
+        <v>0.1570120035722624</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.562605684679681</v>
+        <v>6.749683652115209</v>
       </c>
       <c r="O3">
-        <v>5.534998599706682</v>
+        <v>7.535892889105128</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3974091552244943</v>
+        <v>0.3511876936294414</v>
       </c>
       <c r="D4">
-        <v>0.04084533152759917</v>
+        <v>0.02386882396596235</v>
       </c>
       <c r="E4">
-        <v>0.1673565443793592</v>
+        <v>0.1567058538966499</v>
       </c>
       <c r="F4">
-        <v>1.487888719256986</v>
+        <v>1.9685605630293</v>
       </c>
       <c r="G4">
-        <v>0.0024488389505038</v>
+        <v>0.0007548224952332475</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1455834063615171</v>
+        <v>0.1441564766737073</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.371325805375818</v>
+        <v>6.187481969422947</v>
       </c>
       <c r="O4">
-        <v>5.398053472804634</v>
+        <v>6.872969618722834</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.395380456662167</v>
+        <v>0.3393508516558654</v>
       </c>
       <c r="D5">
-        <v>0.04079838412101111</v>
+        <v>0.0232340702249445</v>
       </c>
       <c r="E5">
-        <v>0.1663989955515106</v>
+        <v>0.1512590629771786</v>
       </c>
       <c r="F5">
-        <v>1.471766925594494</v>
+        <v>1.891615743196027</v>
       </c>
       <c r="G5">
-        <v>0.002450448910948996</v>
+        <v>0.0007572414085184768</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1446580720819739</v>
+        <v>0.1390075568040103</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.293303068607429</v>
+        <v>5.958052239810399</v>
       </c>
       <c r="O5">
-        <v>5.343206354397012</v>
+        <v>6.60682943400036</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3950474027081441</v>
+        <v>0.3373970057875226</v>
       </c>
       <c r="D6">
-        <v>0.04079094892883006</v>
+        <v>0.02312977795181936</v>
       </c>
       <c r="E6">
-        <v>0.1662416511366303</v>
+        <v>0.150359992665738</v>
       </c>
       <c r="F6">
-        <v>1.469105898554105</v>
+        <v>1.878902634946812</v>
       </c>
       <c r="G6">
-        <v>0.002450719169078277</v>
+        <v>0.0007576453671324405</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1445059040533607</v>
+        <v>0.1381576607121389</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.280343261403573</v>
+        <v>5.919936152110608</v>
       </c>
       <c r="O6">
-        <v>5.33415673610159</v>
+        <v>6.562862797678918</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3973815398671832</v>
+        <v>0.3510272605377054</v>
       </c>
       <c r="D7">
-        <v>0.04084467419834326</v>
+        <v>0.02386018759634467</v>
       </c>
       <c r="E7">
-        <v>0.1673435194300446</v>
+        <v>0.156632029267989</v>
       </c>
       <c r="F7">
-        <v>1.487670222138831</v>
+        <v>1.967518501805145</v>
       </c>
       <c r="G7">
-        <v>0.002448860466967142</v>
+        <v>0.0007548549648354182</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1455708274514933</v>
+        <v>0.1440866887105088</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.370273851392596</v>
+        <v>6.184389112219662</v>
       </c>
       <c r="O7">
-        <v>5.397309912077901</v>
+        <v>6.86936487885896</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4082376467131894</v>
+        <v>0.4130511958566387</v>
       </c>
       <c r="D8">
-        <v>0.04113436324431063</v>
+        <v>0.02726237322713132</v>
       </c>
       <c r="E8">
-        <v>0.1724476636962464</v>
+        <v>0.1851755622608522</v>
       </c>
       <c r="F8">
-        <v>1.571929136775665</v>
+        <v>2.368907180583903</v>
       </c>
       <c r="G8">
-        <v>0.002441082374678493</v>
+        <v>0.0007428600849934548</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1504868499159144</v>
+        <v>0.171072305593718</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.766433886209825</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O8">
-        <v>5.684432272078936</v>
+        <v>8.258641174518118</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4315490945530769</v>
+        <v>0.5434426232050384</v>
       </c>
       <c r="D9">
-        <v>0.0418938558584685</v>
+        <v>0.03478059461870231</v>
       </c>
       <c r="E9">
-        <v>0.1833381646391032</v>
+        <v>0.245219872343398</v>
       </c>
       <c r="F9">
-        <v>1.745725099980206</v>
+        <v>3.205501436832265</v>
       </c>
       <c r="G9">
-        <v>0.002427341336521415</v>
+        <v>0.0007203105383858851</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1609184648714432</v>
+        <v>0.2278750332135644</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.540180268007646</v>
+        <v>9.620230281550619</v>
       </c>
       <c r="O9">
-        <v>6.278378879143929</v>
+        <v>11.15858495841098</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4499349010714582</v>
+        <v>0.6468607918907878</v>
       </c>
       <c r="D10">
-        <v>0.04257091168715732</v>
+        <v>0.04105703818959228</v>
       </c>
       <c r="E10">
-        <v>0.1918894678433247</v>
+        <v>0.2928976422855811</v>
       </c>
       <c r="F10">
-        <v>1.878803705533187</v>
+        <v>3.864173394417179</v>
       </c>
       <c r="G10">
-        <v>0.002418156070073038</v>
+        <v>0.0007041430500612789</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1690778548396423</v>
+        <v>0.2730285018474916</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.10623028343673</v>
+        <v>11.28258838837513</v>
       </c>
       <c r="O10">
-        <v>6.734186266718666</v>
+        <v>13.44535920933015</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4585782732348207</v>
+        <v>0.6961785314880728</v>
       </c>
       <c r="D11">
-        <v>0.04290530830628114</v>
+        <v>0.04414221182882727</v>
       </c>
       <c r="E11">
-        <v>0.1959019978053576</v>
+        <v>0.3156542770146444</v>
       </c>
       <c r="F11">
-        <v>1.94055330003863</v>
+        <v>4.17712731434824</v>
       </c>
       <c r="G11">
-        <v>0.002414172684371449</v>
+        <v>0.0006968230533998898</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.172900211514559</v>
+        <v>0.2945985437326186</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.363110593465422</v>
+        <v>12.03742316731768</v>
       </c>
       <c r="O11">
-        <v>6.945899248271644</v>
+        <v>14.53288756793438</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4618919340935577</v>
+        <v>0.7152426551909912</v>
       </c>
       <c r="D12">
-        <v>0.04303577475471343</v>
+        <v>0.04535047067273723</v>
       </c>
       <c r="E12">
-        <v>0.1974392716318931</v>
+        <v>0.324454760776355</v>
       </c>
       <c r="F12">
-        <v>1.964113322163229</v>
+        <v>4.297927760413103</v>
       </c>
       <c r="G12">
-        <v>0.002412692139293403</v>
+        <v>0.0006940509665579427</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1743637640832247</v>
+        <v>0.3029435203422111</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.460285735714251</v>
+        <v>12.32306348037548</v>
       </c>
       <c r="O12">
-        <v>7.026707033160847</v>
+        <v>14.95284430556353</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4611764656201274</v>
+        <v>0.7111184726859108</v>
       </c>
       <c r="D13">
-        <v>0.0430075051174228</v>
+        <v>0.04508834797881178</v>
       </c>
       <c r="E13">
-        <v>0.1971073966083026</v>
+        <v>0.322550752541197</v>
       </c>
       <c r="F13">
-        <v>1.959031345373745</v>
+        <v>4.271802606726084</v>
       </c>
       <c r="G13">
-        <v>0.002413009764156291</v>
+        <v>0.0006946480838909079</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1740478421134668</v>
+        <v>0.3011378994964105</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.439361943450422</v>
+        <v>12.26155457991871</v>
       </c>
       <c r="O13">
-        <v>7.009275167049168</v>
+        <v>14.86201355086132</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4588500740291863</v>
+        <v>0.6977387684109999</v>
       </c>
       <c r="D14">
-        <v>0.04291596470560677</v>
+        <v>0.04424077047946184</v>
       </c>
       <c r="E14">
-        <v>0.1960281120293459</v>
+        <v>0.3163744422049533</v>
       </c>
       <c r="F14">
-        <v>1.942488039117279</v>
+        <v>4.187017324511572</v>
       </c>
       <c r="G14">
-        <v>0.002414050321278413</v>
+        <v>0.0006965950280714792</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1730202948356521</v>
+        <v>0.2952813617985868</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.371107314139522</v>
+        <v>12.06092695796548</v>
       </c>
       <c r="O14">
-        <v>6.952534540460306</v>
+        <v>14.56726616115168</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4574303918063265</v>
+        <v>0.6895959333290875</v>
       </c>
       <c r="D15">
-        <v>0.04286039458800417</v>
+        <v>0.04372703834499703</v>
       </c>
       <c r="E15">
-        <v>0.1953693452286061</v>
+        <v>0.3126160745172299</v>
       </c>
       <c r="F15">
-        <v>1.932377887238232</v>
+        <v>4.135394597206499</v>
       </c>
       <c r="G15">
-        <v>0.002414691318158281</v>
+        <v>0.000697787398602498</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1723929964418431</v>
+        <v>0.2917180395916432</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.329286057409945</v>
+        <v>11.93801081193834</v>
       </c>
       <c r="O15">
-        <v>6.917862456505418</v>
+        <v>14.38782773387663</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4493756962205566</v>
+        <v>0.6436885334339024</v>
       </c>
       <c r="D16">
-        <v>0.04254959283818494</v>
+        <v>0.04086060220368637</v>
       </c>
       <c r="E16">
-        <v>0.1916297216248282</v>
+        <v>0.2914343364202168</v>
       </c>
       <c r="F16">
-        <v>1.874792821859501</v>
+        <v>3.844019877093785</v>
       </c>
       <c r="G16">
-        <v>0.00241842030380357</v>
+        <v>0.0007046217059278352</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1688302978955676</v>
+        <v>0.2716419170107685</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.089429168003562</v>
+        <v>11.23323027560713</v>
       </c>
       <c r="O16">
-        <v>6.720438916590751</v>
+        <v>13.37534687177464</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4445062899972072</v>
+        <v>0.6161486038043051</v>
       </c>
       <c r="D17">
-        <v>0.04236571691788527</v>
+        <v>0.0391655418564838</v>
       </c>
       <c r="E17">
-        <v>0.1893671001002346</v>
+        <v>0.2787329552054914</v>
       </c>
       <c r="F17">
-        <v>1.839778358249077</v>
+        <v>3.668930829356043</v>
       </c>
       <c r="G17">
-        <v>0.002420757748973889</v>
+        <v>0.0007088198110206596</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1666731710256926</v>
+        <v>0.2596085389490526</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.94211849063862</v>
+        <v>10.80051555282938</v>
       </c>
       <c r="O17">
-        <v>6.600450126405121</v>
+        <v>12.76720963114207</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4417318269260591</v>
+        <v>0.6005179858999554</v>
       </c>
       <c r="D18">
-        <v>0.04226243875648095</v>
+        <v>0.03821175197223425</v>
       </c>
       <c r="E18">
-        <v>0.1880772180152661</v>
+        <v>0.2715259267671613</v>
       </c>
       <c r="F18">
-        <v>1.819752836722699</v>
+        <v>3.569452145934036</v>
       </c>
       <c r="G18">
-        <v>0.002422120553716031</v>
+        <v>0.0007112380676570599</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1654428473608789</v>
+        <v>0.2527821693376922</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.857331695637754</v>
+        <v>10.5514994903329</v>
       </c>
       <c r="O18">
-        <v>6.531845942678046</v>
+        <v>12.42178165818183</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4407969447700566</v>
+        <v>0.5952600128687777</v>
       </c>
       <c r="D19">
-        <v>0.04222789565883289</v>
+        <v>0.03789226111655353</v>
       </c>
       <c r="E19">
-        <v>0.1876424582821627</v>
+        <v>0.2691018445924698</v>
       </c>
       <c r="F19">
-        <v>1.812992018896381</v>
+        <v>3.535970819949114</v>
       </c>
       <c r="G19">
-        <v>0.002422585135566624</v>
+        <v>0.0007120576123875614</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1650280607486394</v>
+        <v>0.2504863796553707</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.828614786364199</v>
+        <v>10.46716465870088</v>
       </c>
       <c r="O19">
-        <v>6.508687920264606</v>
+        <v>12.30553679531073</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4450219227514083</v>
+        <v>0.6190581666899959</v>
       </c>
       <c r="D20">
-        <v>0.04238503360718937</v>
+        <v>0.03934374780094174</v>
       </c>
       <c r="E20">
-        <v>0.189606766517997</v>
+        <v>0.2800746499466129</v>
       </c>
       <c r="F20">
-        <v>1.843493903818938</v>
+        <v>3.687439750980133</v>
       </c>
       <c r="G20">
-        <v>0.002420507023993686</v>
+        <v>0.0007083725756694565</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1669017231800751</v>
+        <v>0.2608794965583314</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.95780600327754</v>
+        <v>10.84659223998074</v>
       </c>
       <c r="O20">
-        <v>6.61318061865444</v>
+        <v>12.83148703512194</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.459532286431056</v>
+        <v>0.7016576199983717</v>
       </c>
       <c r="D21">
-        <v>0.04294274785392105</v>
+        <v>0.04448857786894678</v>
       </c>
       <c r="E21">
-        <v>0.1963446389377665</v>
+        <v>0.3181833456617298</v>
       </c>
       <c r="F21">
-        <v>1.947342390297081</v>
+        <v>4.211855300239876</v>
       </c>
       <c r="G21">
-        <v>0.002413743929176309</v>
+        <v>0.000696023213098602</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1733216715419843</v>
+        <v>0.2969965133916332</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.391158149571083</v>
+        <v>12.11986155709377</v>
       </c>
       <c r="O21">
-        <v>6.969183284980772</v>
+        <v>14.65360805409955</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4692525077703635</v>
+        <v>0.7579429551381622</v>
       </c>
       <c r="D22">
-        <v>0.04332963540378643</v>
+        <v>0.04808827149628314</v>
       </c>
       <c r="E22">
-        <v>0.2008521682773079</v>
+        <v>0.3441741566809497</v>
       </c>
       <c r="F22">
-        <v>2.01624508577035</v>
+        <v>4.568173154447095</v>
       </c>
       <c r="G22">
-        <v>0.002409486263784601</v>
+        <v>0.0006879481735873038</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1776114721325968</v>
+        <v>0.3216493219793222</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.67379181795809</v>
+        <v>12.95085643057962</v>
       </c>
       <c r="O22">
-        <v>7.205566999775442</v>
+        <v>15.89267736597856</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4640428353817185</v>
+        <v>0.7276684297701195</v>
       </c>
       <c r="D23">
-        <v>0.04312108369613554</v>
+        <v>0.04614267985705567</v>
       </c>
       <c r="E23">
-        <v>0.1984368371623333</v>
+        <v>0.3301919683131445</v>
       </c>
       <c r="F23">
-        <v>1.979375152919317</v>
+        <v>4.376614696381068</v>
       </c>
       <c r="G23">
-        <v>0.00241174385560077</v>
+        <v>0.0006922602841317266</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1753132561374002</v>
+        <v>0.3083848130501394</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.523002190001307</v>
+        <v>12.50744471934257</v>
       </c>
       <c r="O23">
-        <v>7.079061535084406</v>
+        <v>15.22644593706502</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4447887272712023</v>
+        <v>0.6177421272254833</v>
       </c>
       <c r="D24">
-        <v>0.04237629295153766</v>
+        <v>0.03926311684838879</v>
       </c>
       <c r="E24">
-        <v>0.1894983793037923</v>
+        <v>0.279467775490879</v>
       </c>
       <c r="F24">
-        <v>1.841813779557327</v>
+        <v>3.679068212302099</v>
       </c>
       <c r="G24">
-        <v>0.002420620317637123</v>
+        <v>0.0007085747556322447</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.166798364125242</v>
+        <v>0.2603046128538296</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.950713976768498</v>
+        <v>10.82576172529139</v>
       </c>
       <c r="O24">
-        <v>6.607423983390333</v>
+        <v>12.80241424205275</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4250235504886177</v>
+        <v>0.507014562348246</v>
       </c>
       <c r="D25">
-        <v>0.04166765987362453</v>
+        <v>0.03263401838868418</v>
       </c>
       <c r="E25">
-        <v>0.1802963383349123</v>
+        <v>0.2284382103031604</v>
       </c>
       <c r="F25">
-        <v>1.697774433799424</v>
+        <v>2.972571303467191</v>
       </c>
       <c r="G25">
-        <v>0.002430897980181944</v>
+        <v>0.0007263250399812109</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1580104031885554</v>
+        <v>0.2119931041185339</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.331249627311138</v>
+        <v>9.00683856119241</v>
       </c>
       <c r="O25">
-        <v>6.114331337941053</v>
+        <v>10.35062602493446</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_56/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4303758825068087</v>
+        <v>0.1353248316482336</v>
       </c>
       <c r="D2">
-        <v>0.02823400681499066</v>
+        <v>0.009979079386333467</v>
       </c>
       <c r="E2">
-        <v>0.1931499489403734</v>
+        <v>6.823853493403448</v>
       </c>
       <c r="F2">
-        <v>2.480562623052435</v>
+        <v>0.8336822846746514</v>
       </c>
       <c r="G2">
-        <v>0.0007396821666260217</v>
+        <v>0.7942326458785374</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.1989840185116769</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1182362570812288</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3960435461410725</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6120945681069472</v>
       </c>
       <c r="L2">
-        <v>0.1786129369205014</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>7.66312166460591</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>8.645358351891218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>33.39605912320474</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3807386676273552</v>
+        <v>0.11374338234166</v>
       </c>
       <c r="D3">
-        <v>0.02547449408833558</v>
+        <v>0.009305512006250183</v>
       </c>
       <c r="E3">
-        <v>0.1703044342602382</v>
+        <v>5.98101446215324</v>
       </c>
       <c r="F3">
-        <v>2.160145847444483</v>
+        <v>0.7036192623057929</v>
       </c>
       <c r="G3">
-        <v>0.0007489774306881358</v>
+        <v>0.6579831977925039</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.1385064739902209</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.09161892366233193</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3453472894296112</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5236948160055377</v>
       </c>
       <c r="L3">
-        <v>0.1570120035722624</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.749683652115209</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>7.535892889105128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>28.54259702278006</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3511876936294414</v>
+        <v>0.1012378836583636</v>
       </c>
       <c r="D4">
-        <v>0.02386882396596235</v>
+        <v>0.008948486743840078</v>
       </c>
       <c r="E4">
-        <v>0.1567058538966499</v>
+        <v>5.460159767586845</v>
       </c>
       <c r="F4">
-        <v>1.9685605630293</v>
+        <v>0.6301938613076175</v>
       </c>
       <c r="G4">
-        <v>0.0007548224952332475</v>
+        <v>0.5815859822330225</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.1076798432552435</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.07692054905490497</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3178299723618778</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4735894078019811</v>
       </c>
       <c r="L4">
-        <v>0.1441564766737073</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.187481969422947</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>6.872969618722834</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>25.67404228125986</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3393508516558654</v>
+        <v>0.09605120945684575</v>
       </c>
       <c r="D5">
-        <v>0.0232340702249445</v>
+        <v>0.008875042273214007</v>
       </c>
       <c r="E5">
-        <v>0.1512590629771786</v>
+        <v>5.247037539306348</v>
       </c>
       <c r="F5">
-        <v>1.891615743196027</v>
+        <v>0.6003530239700723</v>
       </c>
       <c r="G5">
-        <v>0.0007572414085184768</v>
+        <v>0.5505546030968276</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.09636496491309732</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.07126372772724876</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3066681321532485</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.452714861813206</v>
       </c>
       <c r="L5">
-        <v>0.1390075568040103</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.958052239810399</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>6.60682943400036</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>24.52629896211067</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3373970057875226</v>
+        <v>0.09490930184861668</v>
       </c>
       <c r="D6">
-        <v>0.02312977795181936</v>
+        <v>0.008937524078383774</v>
       </c>
       <c r="E6">
-        <v>0.150359992665738</v>
+        <v>5.21158528121714</v>
       </c>
       <c r="F6">
-        <v>1.878902634946812</v>
+        <v>0.5939167596118722</v>
       </c>
       <c r="G6">
-        <v>0.0007576453671324405</v>
+        <v>0.5437530397174726</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.09453738664178246</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.07033667218883455</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3039833553264941</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4476742200445258</v>
       </c>
       <c r="L6">
-        <v>0.1381576607121389</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.919936152110608</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>6.562862797678918</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>24.33675067000138</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3510272605377054</v>
+        <v>0.100375081166753</v>
       </c>
       <c r="D7">
-        <v>0.02386018759634467</v>
+        <v>0.009148010430873654</v>
       </c>
       <c r="E7">
-        <v>0.156632029267989</v>
+        <v>5.457260156438423</v>
       </c>
       <c r="F7">
-        <v>1.967518501805145</v>
+        <v>0.625499042325913</v>
       </c>
       <c r="G7">
-        <v>0.0007548549648354182</v>
+        <v>0.5763828552978225</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.1074731828927584</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0768025421119285</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3152686403539064</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4688318267829246</v>
       </c>
       <c r="L7">
-        <v>0.1440866887105088</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>6.184389112219662</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>6.86936487885896</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>25.65823383962822</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4130511958566387</v>
+        <v>0.126642680671246</v>
       </c>
       <c r="D8">
-        <v>0.02726237322713132</v>
+        <v>0.009992248747842325</v>
       </c>
       <c r="E8">
-        <v>0.1851755622608522</v>
+        <v>6.53389332863884</v>
       </c>
       <c r="F8">
-        <v>2.368907180583903</v>
+        <v>0.7814804881188309</v>
       </c>
       <c r="G8">
-        <v>0.0007428600849934548</v>
+        <v>0.7390047611842618</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.1765170787685282</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.108557311751813</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3744379069362367</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.5745253886672046</v>
       </c>
       <c r="L8">
-        <v>0.171072305593718</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>7.348453399592699</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>8.258641174518118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>31.69436632690741</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.5434426232050384</v>
+        <v>0.187941925793524</v>
       </c>
       <c r="D9">
-        <v>0.03478059461870231</v>
+        <v>0.01189834248695831</v>
       </c>
       <c r="E9">
-        <v>0.245219872343398</v>
+        <v>8.62004486551146</v>
       </c>
       <c r="F9">
-        <v>3.205501436832265</v>
+        <v>1.161842233085636</v>
       </c>
       <c r="G9">
-        <v>0.0007203105383858851</v>
+        <v>1.142473356883698</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.382590754107536</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.1880736392450419</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5318532486401466</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.8336524264362808</v>
       </c>
       <c r="L9">
-        <v>0.2278750332135644</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.620230281550619</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>11.15858495841098</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>44.84890928203919</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.6468607918907878</v>
+        <v>0.2451886887081898</v>
       </c>
       <c r="D10">
-        <v>0.04105703818959228</v>
+        <v>0.01508227523839523</v>
       </c>
       <c r="E10">
-        <v>0.2928976422855811</v>
+        <v>10.38518929581431</v>
       </c>
       <c r="F10">
-        <v>3.864173394417179</v>
+        <v>1.490275103125938</v>
       </c>
       <c r="G10">
-        <v>0.0007041430500612789</v>
+        <v>1.496683969560991</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.6252901842279215</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.2660514568799766</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.673269998411655</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.052674790535193</v>
       </c>
       <c r="L10">
-        <v>0.2730285018474916</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.28258838837513</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>13.44535920933015</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>56.31907618080146</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.6961785314880728</v>
+        <v>0.3001381981205</v>
       </c>
       <c r="D11">
-        <v>0.04414221182882727</v>
+        <v>0.02775273888437013</v>
       </c>
       <c r="E11">
-        <v>0.3156542770146444</v>
+        <v>13.54290169089569</v>
       </c>
       <c r="F11">
-        <v>4.17712731434824</v>
+        <v>1.493935370315171</v>
       </c>
       <c r="G11">
-        <v>0.0006968230533998898</v>
+        <v>1.503871149174955</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.8295833340006737</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.322911224176857</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.6499573291704337</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.026241481033864</v>
       </c>
       <c r="L11">
-        <v>0.2945985437326186</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.03742316731768</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>14.53288756793438</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>62.69366853266797</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.7152426551909912</v>
+        <v>0.3402984875982895</v>
       </c>
       <c r="D12">
-        <v>0.04535047067273723</v>
+        <v>0.04009026785543313</v>
       </c>
       <c r="E12">
-        <v>0.324454760776355</v>
+        <v>16.1544478902934</v>
       </c>
       <c r="F12">
-        <v>4.297927760413103</v>
+        <v>1.444062604926941</v>
       </c>
       <c r="G12">
-        <v>0.0006940509665579427</v>
+        <v>1.45773334832765</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.9858791610297857</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.3578969260797011</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.6103306779511968</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.9715769536678778</v>
       </c>
       <c r="L12">
-        <v>0.3029435203422111</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.32306348037548</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>14.95284430556353</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>65.62230221767862</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.7111184726859108</v>
+        <v>0.3659848860731785</v>
       </c>
       <c r="D13">
-        <v>0.04508834797881178</v>
+        <v>0.05292605309612952</v>
       </c>
       <c r="E13">
-        <v>0.322550752541197</v>
+        <v>18.4502752374367</v>
       </c>
       <c r="F13">
-        <v>4.271802606726084</v>
+        <v>1.325700579717108</v>
       </c>
       <c r="G13">
-        <v>0.0006946480838909079</v>
+        <v>1.339631021468904</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.082361439926814</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.3720455450958404</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.5426746724725291</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.8735050257435546</v>
       </c>
       <c r="L13">
-        <v>0.3011378994964105</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.26155457991871</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>14.86201355086132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>65.48750849634416</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.6977387684109999</v>
+        <v>0.3765292451979434</v>
       </c>
       <c r="D14">
-        <v>0.04424077047946184</v>
+        <v>0.06244924946545893</v>
       </c>
       <c r="E14">
-        <v>0.3163744422049533</v>
+        <v>19.91931486346965</v>
       </c>
       <c r="F14">
-        <v>4.187017324511572</v>
+        <v>1.210905077423718</v>
       </c>
       <c r="G14">
-        <v>0.0006965950280714792</v>
+        <v>1.223742887008029</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.121477025516427</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.3716589899391645</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.4823085044537265</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.7846312794660548</v>
       </c>
       <c r="L14">
-        <v>0.2952813617985868</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.06092695796548</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>14.56726616115168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>63.95926967809004</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.6895959333290875</v>
+        <v>0.3744236767595481</v>
       </c>
       <c r="D15">
-        <v>0.04372703834499703</v>
+        <v>0.0646062101594751</v>
       </c>
       <c r="E15">
-        <v>0.3126160745172299</v>
+        <v>20.15132548335623</v>
       </c>
       <c r="F15">
-        <v>4.135394597206499</v>
+        <v>1.164675696259849</v>
       </c>
       <c r="G15">
-        <v>0.000697787398602498</v>
+        <v>1.175490336882703</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.110952740394254</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.3660267913102633</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4595511609172291</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.7508933422904889</v>
       </c>
       <c r="L15">
-        <v>0.2917180395916432</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.93801081193834</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>14.38782773387663</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>62.92021298167856</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.6436885334339024</v>
+        <v>0.3332135731598811</v>
       </c>
       <c r="D16">
-        <v>0.04086060220368637</v>
+        <v>0.05985172145307871</v>
       </c>
       <c r="E16">
-        <v>0.2914343364202168</v>
+        <v>18.73429471370332</v>
       </c>
       <c r="F16">
-        <v>3.844019877093785</v>
+        <v>1.008558762934413</v>
       </c>
       <c r="G16">
-        <v>0.0007046217059278352</v>
+        <v>1.001339339045771</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.9162178766233637</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.3154226380311576</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3916565264455869</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.6520773980211629</v>
       </c>
       <c r="L16">
-        <v>0.2716419170107685</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.23323027560713</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>13.37534687177464</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>56.92198117294009</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.6161486038043051</v>
+        <v>0.2990829558623602</v>
       </c>
       <c r="D17">
-        <v>0.0391655418564838</v>
+        <v>0.0512324905961421</v>
       </c>
       <c r="E17">
-        <v>0.2787329552054914</v>
+        <v>16.90452861183064</v>
       </c>
       <c r="F17">
-        <v>3.668930829356043</v>
+        <v>0.959951564911222</v>
       </c>
       <c r="G17">
-        <v>0.0007088198110206596</v>
+        <v>0.9411136024398417</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.7657719465498616</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.2809977097479504</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3769747853294803</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.6294204149481573</v>
       </c>
       <c r="L17">
-        <v>0.2596085389490526</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.80051555282938</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>12.76720963114207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>53.45266701368587</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.6005179858999554</v>
+        <v>0.2682095979143497</v>
       </c>
       <c r="D18">
-        <v>0.03821175197223425</v>
+        <v>0.03914040213511782</v>
       </c>
       <c r="E18">
-        <v>0.2715259267671613</v>
+        <v>14.64291885661078</v>
       </c>
       <c r="F18">
-        <v>3.569452145934036</v>
+        <v>0.9976107347745682</v>
       </c>
       <c r="G18">
-        <v>0.0007112380676570599</v>
+        <v>0.9725842457110616</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.6359392479007866</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.255358062348729</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4065734898592126</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.6707076282061664</v>
       </c>
       <c r="L18">
-        <v>0.2527821693376922</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.5514994903329</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>12.42178165818183</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>51.4403285375725</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.5952600128687777</v>
+        <v>0.2416227950519811</v>
       </c>
       <c r="D19">
-        <v>0.03789226111655353</v>
+        <v>0.02733686072167174</v>
       </c>
       <c r="E19">
-        <v>0.2691018445924698</v>
+        <v>12.35878207066111</v>
       </c>
       <c r="F19">
-        <v>3.535970819949114</v>
+        <v>1.099291162779068</v>
       </c>
       <c r="G19">
-        <v>0.0007120576123875614</v>
+        <v>1.075454909539459</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.5470535977388238</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.2387725086826711</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4689877832086466</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.7566680693898817</v>
       </c>
       <c r="L19">
-        <v>0.2504863796553707</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.46716465870088</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>12.30553679531073</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>50.6459802796407</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.6190581666899959</v>
+        <v>0.226596263143513</v>
       </c>
       <c r="D20">
-        <v>0.03934374780094174</v>
+        <v>0.01478117323798855</v>
       </c>
       <c r="E20">
-        <v>0.2800746499466129</v>
+        <v>9.931156116654734</v>
       </c>
       <c r="F20">
-        <v>3.687439750980133</v>
+        <v>1.380773361556365</v>
       </c>
       <c r="G20">
-        <v>0.0007083725756694565</v>
+        <v>1.377223840966565</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.5509956522158568</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.2432361732396204</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6231797630148606</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.9738653792224028</v>
       </c>
       <c r="L20">
-        <v>0.2608794965583314</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.84659223998074</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>12.83148703512194</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>53.09594136913609</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.7016576199983717</v>
+        <v>0.273265964917961</v>
       </c>
       <c r="D21">
-        <v>0.04448857786894678</v>
+        <v>0.01593353411204035</v>
       </c>
       <c r="E21">
-        <v>0.3181833456617298</v>
+        <v>10.90507491799983</v>
       </c>
       <c r="F21">
-        <v>4.211855300239876</v>
+        <v>1.707289949814921</v>
       </c>
       <c r="G21">
-        <v>0.000696023213098602</v>
+        <v>1.733381104973773</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.7904861066228648</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.3114093483576488</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7737544097786611</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.197452046331492</v>
       </c>
       <c r="L21">
-        <v>0.2969965133916332</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.11986155709377</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>14.65360805409955</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>63.05191951579269</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.7579429551381622</v>
+        <v>0.3119821406732228</v>
       </c>
       <c r="D22">
-        <v>0.04808827149628314</v>
+        <v>0.01742789163592562</v>
       </c>
       <c r="E22">
-        <v>0.3441741566809497</v>
+        <v>11.66434229694556</v>
       </c>
       <c r="F22">
-        <v>4.568173154447095</v>
+        <v>1.955294992063472</v>
       </c>
       <c r="G22">
-        <v>0.0006879481735873038</v>
+        <v>2.007471720186516</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.008914044434384</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.3664484619958577</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.8904850597112102</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.368187589174156</v>
       </c>
       <c r="L22">
-        <v>0.3216493219793222</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.95085643057962</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>15.89267736597856</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>70.8666848315882</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.7276684297701195</v>
+        <v>0.2915104180560419</v>
       </c>
       <c r="D23">
-        <v>0.04614267985705567</v>
+        <v>0.01638038132779229</v>
       </c>
       <c r="E23">
-        <v>0.3301919683131445</v>
+        <v>11.25908969112768</v>
       </c>
       <c r="F23">
-        <v>4.376614696381068</v>
+        <v>1.824137612988082</v>
       </c>
       <c r="G23">
-        <v>0.0006922602841317266</v>
+        <v>1.862327229270079</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.8846103249405921</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.3361107416215834</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.8289768909610018</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.280045496583952</v>
       </c>
       <c r="L23">
-        <v>0.3083848130501394</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.50744471934257</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>15.22644593706502</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>66.52607803913583</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.6177421272254833</v>
+        <v>0.2254405783101205</v>
       </c>
       <c r="D24">
-        <v>0.03926311684838879</v>
+        <v>0.0136385652712967</v>
       </c>
       <c r="E24">
-        <v>0.279467775490879</v>
+        <v>9.722674383411146</v>
       </c>
       <c r="F24">
-        <v>3.679068212302099</v>
+        <v>1.400892759758008</v>
       </c>
       <c r="G24">
-        <v>0.0007085747556322447</v>
+        <v>1.399544044231817</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.5462902656752355</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.2415668509620525</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6355190302052165</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.9928085146030128</v>
       </c>
       <c r="L24">
-        <v>0.2603046128538296</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.82576172529139</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>12.80241424205275</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>52.93387350762453</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.507014562348246</v>
+        <v>0.1686108382030653</v>
       </c>
       <c r="D25">
-        <v>0.03263401838868418</v>
+        <v>0.01163281287317375</v>
       </c>
       <c r="E25">
-        <v>0.2284382103031604</v>
+        <v>8.058114821438664</v>
       </c>
       <c r="F25">
-        <v>2.972571303467191</v>
+        <v>1.040913205100694</v>
       </c>
       <c r="G25">
-        <v>0.0007263250399812109</v>
+        <v>1.012850745055687</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.315580741224105</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.1638685914248121</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.4792567897974322</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.748438758287044</v>
       </c>
       <c r="L25">
-        <v>0.2119931041185339</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9.00683856119241</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>10.35062602493446</v>
+        <v>41.07301915281562</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_56/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1353248316482336</v>
+        <v>0.1242153935076153</v>
       </c>
       <c r="D2">
-        <v>0.009979079386333467</v>
+        <v>0.0196810994483414</v>
       </c>
       <c r="E2">
-        <v>6.823853493403448</v>
+        <v>6.821480917574746</v>
       </c>
       <c r="F2">
-        <v>0.8336822846746514</v>
+        <v>0.6464349552836239</v>
       </c>
       <c r="G2">
-        <v>0.7942326458785374</v>
+        <v>0.5926815241031989</v>
       </c>
       <c r="H2">
-        <v>0.1989840185116769</v>
+        <v>0.1838582282461232</v>
       </c>
       <c r="I2">
-        <v>0.1182362570812288</v>
+        <v>0.0842396249606816</v>
       </c>
       <c r="J2">
-        <v>0.3960435461410725</v>
+        <v>0.3442308572133896</v>
       </c>
       <c r="K2">
-        <v>0.6120945681069472</v>
+        <v>0.4346404159077935</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2316084319894571</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1528902140835058</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>33.39605912320474</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>33.31212213537748</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.11374338234166</v>
+        <v>0.1023794926042729</v>
       </c>
       <c r="D3">
-        <v>0.009305512006250183</v>
+        <v>0.01778426436908376</v>
       </c>
       <c r="E3">
-        <v>5.98101446215324</v>
+        <v>5.977756325998484</v>
       </c>
       <c r="F3">
-        <v>0.7036192623057929</v>
+        <v>0.5570129675512945</v>
       </c>
       <c r="G3">
-        <v>0.6579831977925039</v>
+        <v>0.49427894205418</v>
       </c>
       <c r="H3">
-        <v>0.1385064739902209</v>
+        <v>0.1280023398186723</v>
       </c>
       <c r="I3">
-        <v>0.09161892366233193</v>
+        <v>0.0662576721114374</v>
       </c>
       <c r="J3">
-        <v>0.3453472894296112</v>
+        <v>0.3180361789769108</v>
       </c>
       <c r="K3">
-        <v>0.5236948160055377</v>
+        <v>0.383953318939362</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2254499620518118</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1158728413601118</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>28.54259702278006</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>28.48698044340489</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1012378836583636</v>
+        <v>0.09002765679871594</v>
       </c>
       <c r="D4">
-        <v>0.008948486743840078</v>
+        <v>0.01661666293763631</v>
       </c>
       <c r="E4">
-        <v>5.460159767586845</v>
+        <v>5.456652701418363</v>
       </c>
       <c r="F4">
-        <v>0.6301938613076175</v>
+        <v>0.5064820362927307</v>
       </c>
       <c r="G4">
-        <v>0.5815859822330225</v>
+        <v>0.4394755290587682</v>
       </c>
       <c r="H4">
-        <v>0.1076798432552435</v>
+        <v>0.09950537813245397</v>
       </c>
       <c r="I4">
-        <v>0.07692054905490497</v>
+        <v>0.05624431891985671</v>
       </c>
       <c r="J4">
-        <v>0.3178299723618778</v>
+        <v>0.3036570879025504</v>
       </c>
       <c r="K4">
-        <v>0.4735894078019811</v>
+        <v>0.3551800443907212</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2218334747809507</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.09548389509267707</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.67404228125986</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>25.63188473640264</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.09605120945684575</v>
+        <v>0.08509177359371911</v>
       </c>
       <c r="D5">
-        <v>0.008875042273214007</v>
+        <v>0.01621346137230262</v>
       </c>
       <c r="E5">
-        <v>5.247037539306348</v>
+        <v>5.24348783916821</v>
       </c>
       <c r="F5">
-        <v>0.6003530239700723</v>
+        <v>0.4857776756075083</v>
       </c>
       <c r="G5">
-        <v>0.5505546030968276</v>
+        <v>0.4172022346721604</v>
       </c>
       <c r="H5">
-        <v>0.09636496491309732</v>
+        <v>0.08904412784190896</v>
       </c>
       <c r="I5">
-        <v>0.07126372772724876</v>
+        <v>0.052395915928237</v>
       </c>
       <c r="J5">
-        <v>0.3066681321532485</v>
+        <v>0.2975729086544874</v>
       </c>
       <c r="K5">
-        <v>0.452714861813206</v>
+        <v>0.3429131735935371</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2199290026794074</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.08736031036939451</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.52629896211067</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>24.48892157330431</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.09490930184861668</v>
+        <v>0.0841437586428011</v>
       </c>
       <c r="D6">
-        <v>0.008937524078383774</v>
+        <v>0.01623537477541248</v>
       </c>
       <c r="E6">
-        <v>5.21158528121714</v>
+        <v>5.208037906940888</v>
       </c>
       <c r="F6">
-        <v>0.5939167596118722</v>
+        <v>0.481126021296042</v>
       </c>
       <c r="G6">
-        <v>0.5437530397174726</v>
+        <v>0.4122014836071202</v>
       </c>
       <c r="H6">
-        <v>0.09453738664178246</v>
+        <v>0.08735669288697423</v>
       </c>
       <c r="I6">
-        <v>0.07033667218883455</v>
+        <v>0.05179722033513556</v>
       </c>
       <c r="J6">
-        <v>0.3039833553264941</v>
+        <v>0.2958672232108057</v>
       </c>
       <c r="K6">
-        <v>0.4476742200445258</v>
+        <v>0.3396454161282136</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2190587013708054</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.08563524394840627</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.33675067000138</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>24.30014650551357</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.100375081166753</v>
+        <v>0.08966356607748338</v>
       </c>
       <c r="D7">
-        <v>0.009148010430873654</v>
+        <v>0.01700054035191201</v>
       </c>
       <c r="E7">
-        <v>5.457260156438423</v>
+        <v>5.453765229740952</v>
       </c>
       <c r="F7">
-        <v>0.625499042325913</v>
+        <v>0.5006484634357236</v>
       </c>
       <c r="G7">
-        <v>0.5763828552978225</v>
+        <v>0.4383163474729344</v>
       </c>
       <c r="H7">
-        <v>0.1074731828927584</v>
+        <v>0.09929975154251913</v>
       </c>
       <c r="I7">
-        <v>0.0768025421119285</v>
+        <v>0.05620901853525329</v>
       </c>
       <c r="J7">
-        <v>0.3152686403539064</v>
+        <v>0.2950023776534749</v>
       </c>
       <c r="K7">
-        <v>0.4688318267829246</v>
+        <v>0.3501009932922585</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2196790413664473</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.09375042222819729</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.65823383962822</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>25.61608002671045</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.126642680671246</v>
+        <v>0.1162084064397888</v>
       </c>
       <c r="D8">
-        <v>0.009992248747842325</v>
+        <v>0.01984117412036923</v>
       </c>
       <c r="E8">
-        <v>6.53389332863884</v>
+        <v>6.531161707633373</v>
       </c>
       <c r="F8">
-        <v>0.7814804881188309</v>
+        <v>0.6028968961282999</v>
       </c>
       <c r="G8">
-        <v>0.7390047611842618</v>
+        <v>0.5622602749292298</v>
       </c>
       <c r="H8">
-        <v>0.1765170787685282</v>
+        <v>0.1630417634035908</v>
       </c>
       <c r="I8">
-        <v>0.108557311751813</v>
+        <v>0.0776819056991469</v>
       </c>
       <c r="J8">
-        <v>0.3744379069362367</v>
+        <v>0.3100810627853292</v>
       </c>
       <c r="K8">
-        <v>0.5745253886672046</v>
+        <v>0.4070657553438224</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2255418090059109</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1362013554047827</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>31.69436632690741</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>31.62081328651448</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.187941925793524</v>
+        <v>0.1799926936915188</v>
       </c>
       <c r="D9">
-        <v>0.01189834248695831</v>
+        <v>0.02434446209938557</v>
       </c>
       <c r="E9">
-        <v>8.62004486551146</v>
+        <v>8.622716409746999</v>
       </c>
       <c r="F9">
-        <v>1.161842233085636</v>
+        <v>0.8621654754902721</v>
       </c>
       <c r="G9">
-        <v>1.142473356883698</v>
+        <v>0.8599502657900899</v>
       </c>
       <c r="H9">
-        <v>0.382590754107536</v>
+        <v>0.3527390026302264</v>
       </c>
       <c r="I9">
-        <v>0.1880736392450419</v>
+        <v>0.1304836863081791</v>
       </c>
       <c r="J9">
-        <v>0.5318532486401466</v>
+        <v>0.3837509389366431</v>
       </c>
       <c r="K9">
-        <v>0.8336524264362808</v>
+        <v>0.5548700940052385</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2441810781634075</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2461459309948424</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>44.84890928203919</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>44.66219682556698</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2451886887081898</v>
+        <v>0.2425237782654417</v>
       </c>
       <c r="D10">
-        <v>0.01508227523839523</v>
+        <v>0.0296679275380427</v>
       </c>
       <c r="E10">
-        <v>10.38518929581431</v>
+        <v>10.39602569815304</v>
       </c>
       <c r="F10">
-        <v>1.490275103125938</v>
+        <v>1.07004728935398</v>
       </c>
       <c r="G10">
-        <v>1.496683969560991</v>
+        <v>1.142437450303262</v>
       </c>
       <c r="H10">
-        <v>0.6252901842279215</v>
+        <v>0.5742118822350761</v>
       </c>
       <c r="I10">
-        <v>0.2660514568799766</v>
+        <v>0.1809700376196917</v>
       </c>
       <c r="J10">
-        <v>0.673269998411655</v>
+        <v>0.40564678063663</v>
       </c>
       <c r="K10">
-        <v>1.052674790535193</v>
+        <v>0.6680885011007618</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2532191074718781</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3406382276121391</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>56.31907618080146</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>55.95422732952323</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3001381981205</v>
+        <v>0.3028104639221922</v>
       </c>
       <c r="D11">
-        <v>0.02775273888437013</v>
+        <v>0.04639914039621118</v>
       </c>
       <c r="E11">
-        <v>13.54290169089569</v>
+        <v>13.53245746529336</v>
       </c>
       <c r="F11">
-        <v>1.493935370315171</v>
+        <v>1.030359196763769</v>
       </c>
       <c r="G11">
-        <v>1.503871149174955</v>
+        <v>1.194784982862117</v>
       </c>
       <c r="H11">
-        <v>0.8295833340006737</v>
+        <v>0.7598112813180649</v>
       </c>
       <c r="I11">
-        <v>0.322911224176857</v>
+        <v>0.2173415213421128</v>
       </c>
       <c r="J11">
-        <v>0.6499573291704337</v>
+        <v>0.286220920577918</v>
       </c>
       <c r="K11">
-        <v>1.026241481033864</v>
+        <v>0.6165929470241522</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2158266585032393</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3525147816013359</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>62.69366853266797</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>62.15793927091113</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3402984875982895</v>
+        <v>0.346623697997547</v>
       </c>
       <c r="D12">
-        <v>0.04009026785543313</v>
+        <v>0.06080176477105681</v>
       </c>
       <c r="E12">
-        <v>16.1544478902934</v>
+        <v>16.11401593515228</v>
       </c>
       <c r="F12">
-        <v>1.444062604926941</v>
+        <v>0.9746511560232136</v>
       </c>
       <c r="G12">
-        <v>1.45773334832765</v>
+        <v>1.184041752888845</v>
       </c>
       <c r="H12">
-        <v>0.9858791610297857</v>
+        <v>0.9032777455472072</v>
       </c>
       <c r="I12">
-        <v>0.3578969260797011</v>
+        <v>0.2396105786784437</v>
       </c>
       <c r="J12">
-        <v>0.6103306779511968</v>
+        <v>0.2174706711365246</v>
       </c>
       <c r="K12">
-        <v>0.9715769536678778</v>
+        <v>0.5655461289990171</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1879578456279702</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.3499375324336498</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>65.62230221767862</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>64.97049722445382</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3659848860731785</v>
+        <v>0.3746134020566529</v>
       </c>
       <c r="D13">
-        <v>0.05292605309612952</v>
+        <v>0.07365415860866875</v>
       </c>
       <c r="E13">
-        <v>18.4502752374367</v>
+        <v>18.37330950435859</v>
       </c>
       <c r="F13">
-        <v>1.325700579717108</v>
+        <v>0.8899823482790765</v>
       </c>
       <c r="G13">
-        <v>1.339631021468904</v>
+        <v>1.095666725989204</v>
       </c>
       <c r="H13">
-        <v>1.082361439926814</v>
+        <v>0.9952243530230334</v>
       </c>
       <c r="I13">
-        <v>0.3720455450958404</v>
+        <v>0.2490441674280168</v>
       </c>
       <c r="J13">
-        <v>0.5426746724725291</v>
+        <v>0.1803793036713301</v>
       </c>
       <c r="K13">
-        <v>0.8735050257435546</v>
+        <v>0.5023907941292052</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1630116278138516</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.3305757525978237</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>65.48750849634416</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>64.81216332803547</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3765292451979434</v>
+        <v>0.3862595558712485</v>
       </c>
       <c r="D14">
-        <v>0.06244924946545893</v>
+        <v>0.08205006168417128</v>
       </c>
       <c r="E14">
-        <v>19.91931486346965</v>
+        <v>19.81549613016568</v>
       </c>
       <c r="F14">
-        <v>1.210905077423718</v>
+        <v>0.8155756811992916</v>
       </c>
       <c r="G14">
-        <v>1.223742887008029</v>
+        <v>0.999938461321463</v>
       </c>
       <c r="H14">
-        <v>1.121477025516427</v>
+        <v>1.035623067287275</v>
       </c>
       <c r="I14">
-        <v>0.3716589899391645</v>
+        <v>0.2493628734404938</v>
       </c>
       <c r="J14">
-        <v>0.4823085044537265</v>
+        <v>0.1643601389479699</v>
       </c>
       <c r="K14">
-        <v>0.7846312794660548</v>
+        <v>0.4512620801984042</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1462858456782392</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.3088027623170717</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>63.95926967809004</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>63.31670130415677</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3744236767595481</v>
+        <v>0.3840845793901977</v>
       </c>
       <c r="D15">
-        <v>0.0646062101594751</v>
+        <v>0.08355571371571813</v>
       </c>
       <c r="E15">
-        <v>20.15132548335623</v>
+        <v>20.04246366388418</v>
       </c>
       <c r="F15">
-        <v>1.164675696259849</v>
+        <v>0.7876319358754671</v>
       </c>
       <c r="G15">
-        <v>1.175490336882703</v>
+        <v>0.9576923022756887</v>
       </c>
       <c r="H15">
-        <v>1.110952740394254</v>
+        <v>1.027729896375348</v>
       </c>
       <c r="I15">
-        <v>0.3660267913102633</v>
+        <v>0.2460604281855314</v>
       </c>
       <c r="J15">
-        <v>0.4595511609172291</v>
+        <v>0.1633862611027865</v>
       </c>
       <c r="K15">
-        <v>0.7508933422904889</v>
+        <v>0.4336085148221045</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1420045651440596</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.2985753339922468</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>62.92021298167856</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>62.30834521901807</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3332135731598811</v>
+        <v>0.3378597921980742</v>
       </c>
       <c r="D16">
-        <v>0.05985172145307871</v>
+        <v>0.0760104983274843</v>
       </c>
       <c r="E16">
-        <v>18.73429471370332</v>
+        <v>18.64254651707296</v>
       </c>
       <c r="F16">
-        <v>1.008558762934413</v>
+        <v>0.7041018677388209</v>
       </c>
       <c r="G16">
-        <v>1.001339339045771</v>
+        <v>0.7936869393872001</v>
       </c>
       <c r="H16">
-        <v>0.9162178766233637</v>
+        <v>0.8523066535846624</v>
       </c>
       <c r="I16">
-        <v>0.3154226380311576</v>
+        <v>0.2145062080587188</v>
       </c>
       <c r="J16">
-        <v>0.3916565264455869</v>
+        <v>0.1922879980274104</v>
       </c>
       <c r="K16">
-        <v>0.6520773980211629</v>
+        <v>0.3932372492625689</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1431204055850479</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.2558549714727718</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>56.92198117294009</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>56.48684019483932</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2990829558623602</v>
+        <v>0.2999637015859449</v>
       </c>
       <c r="D17">
-        <v>0.0512324905961421</v>
+        <v>0.06634146389690443</v>
       </c>
       <c r="E17">
-        <v>16.90452861183064</v>
+        <v>16.83500694159352</v>
       </c>
       <c r="F17">
-        <v>0.959951564911222</v>
+        <v>0.6843998242558342</v>
       </c>
       <c r="G17">
-        <v>0.9411136024398417</v>
+        <v>0.7309649090071986</v>
       </c>
       <c r="H17">
-        <v>0.7657719465498616</v>
+        <v>0.7128816363777588</v>
       </c>
       <c r="I17">
-        <v>0.2809977097479504</v>
+        <v>0.1924936448671417</v>
       </c>
       <c r="J17">
-        <v>0.3769747853294803</v>
+        <v>0.2218974029808862</v>
       </c>
       <c r="K17">
-        <v>0.6294204149481573</v>
+        <v>0.3915828762721958</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1530475566998213</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2368327539845652</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>53.45266701368587</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>53.10412276038761</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2682095979143497</v>
+        <v>0.2655812496225209</v>
       </c>
       <c r="D18">
-        <v>0.03914040213511782</v>
+        <v>0.05387745772247854</v>
       </c>
       <c r="E18">
-        <v>14.64291885661078</v>
+        <v>14.59859495544487</v>
       </c>
       <c r="F18">
-        <v>0.9976107347745682</v>
+        <v>0.7225536493831299</v>
       </c>
       <c r="G18">
-        <v>0.9725842457110616</v>
+        <v>0.7423648035953079</v>
       </c>
       <c r="H18">
-        <v>0.6359392479007866</v>
+        <v>0.590229439596051</v>
       </c>
       <c r="I18">
-        <v>0.255358062348729</v>
+        <v>0.175636711690462</v>
       </c>
       <c r="J18">
-        <v>0.4065734898592126</v>
+        <v>0.2670588164856724</v>
       </c>
       <c r="K18">
-        <v>0.6707076282061664</v>
+        <v>0.4278521417798444</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1739054993540918</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2372406711928718</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>51.4403285375725</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>51.14139684564259</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2416227950519811</v>
+        <v>0.2373841057819739</v>
       </c>
       <c r="D19">
-        <v>0.02733686072167174</v>
+        <v>0.04173317476202243</v>
       </c>
       <c r="E19">
-        <v>12.35878207066111</v>
+        <v>12.33792451790958</v>
       </c>
       <c r="F19">
-        <v>1.099291162779068</v>
+        <v>0.8040197243657445</v>
       </c>
       <c r="G19">
-        <v>1.075454909539459</v>
+        <v>0.8105789741686067</v>
       </c>
       <c r="H19">
-        <v>0.5470535977388238</v>
+        <v>0.5053827234356447</v>
       </c>
       <c r="I19">
-        <v>0.2387725086826711</v>
+        <v>0.1645885963960998</v>
       </c>
       <c r="J19">
-        <v>0.4689877832086466</v>
+        <v>0.3250171000828175</v>
       </c>
       <c r="K19">
-        <v>0.7566680693898817</v>
+        <v>0.4901609621034595</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2012681155642113</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2526568140340046</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>50.6459802796407</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>50.37158274830426</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.226596263143513</v>
+        <v>0.2236984776665736</v>
       </c>
       <c r="D20">
-        <v>0.01478117323798855</v>
+        <v>0.02857721017264936</v>
       </c>
       <c r="E20">
-        <v>9.931156116654734</v>
+        <v>9.939037376859204</v>
       </c>
       <c r="F20">
-        <v>1.380773361556365</v>
+        <v>1.00633068479776</v>
       </c>
       <c r="G20">
-        <v>1.377223840966565</v>
+        <v>1.036448821585083</v>
       </c>
       <c r="H20">
-        <v>0.5509956522158568</v>
+        <v>0.5068670131594359</v>
       </c>
       <c r="I20">
-        <v>0.2432361732396204</v>
+        <v>0.1668049393377107</v>
       </c>
       <c r="J20">
-        <v>0.6231797630148606</v>
+        <v>0.415989497049523</v>
       </c>
       <c r="K20">
-        <v>0.9738653792224028</v>
+        <v>0.6292439530307519</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2480797819990102</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.3111619051902323</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>53.09594136913609</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>52.79274852191077</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.273265964917961</v>
+        <v>0.2766416871437425</v>
       </c>
       <c r="D21">
-        <v>0.01593353411204035</v>
+        <v>0.03334540832415911</v>
       </c>
       <c r="E21">
-        <v>10.90507491799983</v>
+        <v>10.92843851286588</v>
       </c>
       <c r="F21">
-        <v>1.707289949814921</v>
+        <v>1.175420778920667</v>
       </c>
       <c r="G21">
-        <v>1.733381104973773</v>
+        <v>1.37994928328942</v>
       </c>
       <c r="H21">
-        <v>0.7904861066228648</v>
+        <v>0.722911057477468</v>
       </c>
       <c r="I21">
-        <v>0.3114093483576488</v>
+        <v>0.2091800504332664</v>
       </c>
       <c r="J21">
-        <v>0.7737544097786611</v>
+        <v>0.335431681067206</v>
       </c>
       <c r="K21">
-        <v>1.197452046331492</v>
+        <v>0.7212108687146781</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2548633094029142</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3892950996731059</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>63.05191951579269</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>62.52489639426545</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3119821406732228</v>
+        <v>0.3200233544784794</v>
       </c>
       <c r="D22">
-        <v>0.01742789163592562</v>
+        <v>0.03688850583089476</v>
       </c>
       <c r="E22">
-        <v>11.66434229694556</v>
+        <v>11.70293274498678</v>
       </c>
       <c r="F22">
-        <v>1.955294992063472</v>
+        <v>1.302173476427001</v>
       </c>
       <c r="G22">
-        <v>2.007471720186516</v>
+        <v>1.645533148780174</v>
       </c>
       <c r="H22">
-        <v>1.008914044434384</v>
+        <v>0.9171972534988413</v>
       </c>
       <c r="I22">
-        <v>0.3664484619958577</v>
+        <v>0.2427361651778037</v>
       </c>
       <c r="J22">
-        <v>0.8904850597112102</v>
+        <v>0.2863093620067048</v>
       </c>
       <c r="K22">
-        <v>1.368187589174156</v>
+        <v>0.7909907853324398</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2603670473956612</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.4488330300488244</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>70.8666848315882</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>70.06712036784097</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2915104180560419</v>
+        <v>0.2961620622476335</v>
       </c>
       <c r="D23">
-        <v>0.01638038132779229</v>
+        <v>0.03430006595559831</v>
       </c>
       <c r="E23">
-        <v>11.25908969112768</v>
+        <v>11.28862581973269</v>
       </c>
       <c r="F23">
-        <v>1.824137612988082</v>
+        <v>1.242146138761782</v>
       </c>
       <c r="G23">
-        <v>1.862327229270079</v>
+        <v>1.495136469581212</v>
       </c>
       <c r="H23">
-        <v>0.8846103249405921</v>
+        <v>0.8070985838649172</v>
       </c>
       <c r="I23">
-        <v>0.3361107416215834</v>
+        <v>0.2243196512847661</v>
       </c>
       <c r="J23">
-        <v>0.8289768909610018</v>
+        <v>0.3281571002469121</v>
       </c>
       <c r="K23">
-        <v>1.280045496583952</v>
+        <v>0.7606431268102227</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2600530378892287</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.419503788029246</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>66.52607803913583</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>65.89190292958671</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2254405783101205</v>
+        <v>0.2215935741104005</v>
       </c>
       <c r="D24">
-        <v>0.0136385652712967</v>
+        <v>0.02712234954282167</v>
       </c>
       <c r="E24">
-        <v>9.722674383411146</v>
+        <v>9.732145936075227</v>
       </c>
       <c r="F24">
-        <v>1.400892759758008</v>
+        <v>1.022563559057261</v>
       </c>
       <c r="G24">
-        <v>1.399544044231817</v>
+        <v>1.052103775500228</v>
       </c>
       <c r="H24">
-        <v>0.5462902656752355</v>
+        <v>0.5025590339294865</v>
       </c>
       <c r="I24">
-        <v>0.2415668509620525</v>
+        <v>0.1654932858013423</v>
       </c>
       <c r="J24">
-        <v>0.6355190302052165</v>
+        <v>0.4273520674669271</v>
       </c>
       <c r="K24">
-        <v>0.9928085146030128</v>
+        <v>0.6432978333746107</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2537835124169661</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.3156619826759339</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>52.93387350762453</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>52.63386289007394</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1686108382030653</v>
+        <v>0.1603608887032575</v>
       </c>
       <c r="D25">
-        <v>0.01163281287317375</v>
+        <v>0.02338089380349828</v>
       </c>
       <c r="E25">
-        <v>8.058114821438664</v>
+        <v>8.058641173681707</v>
       </c>
       <c r="F25">
-        <v>1.040913205100694</v>
+        <v>0.7820564897851341</v>
       </c>
       <c r="G25">
-        <v>1.012850745055687</v>
+        <v>0.7592815542588056</v>
       </c>
       <c r="H25">
-        <v>0.315580741224105</v>
+        <v>0.2912518692490167</v>
       </c>
       <c r="I25">
-        <v>0.1638685914248121</v>
+        <v>0.11476477882041</v>
       </c>
       <c r="J25">
-        <v>0.4792567897974322</v>
+        <v>0.3674412898284913</v>
       </c>
       <c r="K25">
-        <v>0.748438758287044</v>
+        <v>0.5069504833896374</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2370758150566061</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2116158266501529</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>41.07301915281562</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>40.92690422604755</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
